--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2778583.215213246</v>
+        <v>-2780904.28829134</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5625041.408425028</v>
+        <v>5625041.408425024</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16781314.83445595</v>
+        <v>16781314.83445594</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55.54022196058087</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>227.5210474355601</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>49.59973045914185</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>99.0122911964533</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.6450016938487</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>235.9477392089838</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.13012673870382</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>227.4128599785995</v>
+        <v>222.1008216780093</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>136.9159726472779</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>96.52468151912586</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.2537584251809</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>87.79092413477161</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>194.4819422894253</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.79092413477161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.2442400157278</v>
+        <v>119.2442400157283</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8498289850884</v>
+        <v>205.8498289850886</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0304772033664</v>
+        <v>251.0304772033651</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>193.2189102119588</v>
       </c>
       <c r="T19" t="n">
-        <v>220.3947739469271</v>
+        <v>13.13626241691699</v>
       </c>
       <c r="U19" t="n">
         <v>286.2226359673672</v>
       </c>
       <c r="V19" t="n">
-        <v>121.3439141065047</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>19.40026451980214</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>193.2189102119588</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.79092413477161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>89.60104472960363</v>
+        <v>220.3947739469271</v>
       </c>
       <c r="U25" t="n">
         <v>286.2226359673672</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>98.71514818282191</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.3630412092423</v>
+        <v>411.3630412092429</v>
       </c>
       <c r="H26" t="n">
-        <v>299.127387323049</v>
+        <v>299.1273873230491</v>
       </c>
       <c r="I26" t="n">
-        <v>58.5907477374985</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>119.2442400157278</v>
       </c>
       <c r="T26" t="n">
-        <v>205.8498289850895</v>
+        <v>205.8498289850884</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0304772033646</v>
+        <v>251.0304772033651</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I27" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>193.2189102119588</v>
@@ -2767,7 +2767,7 @@
         <v>220.3947739469271</v>
       </c>
       <c r="U28" t="n">
-        <v>155.4289067500441</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6240317443271</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2807,10 @@
         <v>411.3630412092429</v>
       </c>
       <c r="H29" t="n">
-        <v>299.127387323049</v>
+        <v>299.1273873230491</v>
       </c>
       <c r="I29" t="n">
-        <v>58.5907477374985</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>119.2442400157278</v>
       </c>
       <c r="T29" t="n">
-        <v>205.8498289850895</v>
+        <v>205.8498289850884</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0304772033646</v>
+        <v>251.0304772033651</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I30" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.83310760955521</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>193.2189102119588</v>
@@ -3004,7 +3004,7 @@
         <v>220.3947739469271</v>
       </c>
       <c r="U31" t="n">
-        <v>155.4289067500439</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>5.792051562389808</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I32" t="n">
-        <v>58.59074773749856</v>
+        <v>58.59074773749853</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>251.0304772033651</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I33" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>90.58624660553116</v>
       </c>
       <c r="I34" t="n">
-        <v>46.37678291565691</v>
+        <v>46.37678291565747</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.90430413480668</v>
+        <v>41.90430413480533</v>
       </c>
       <c r="S34" t="n">
         <v>137.2901067372091</v>
@@ -3284,7 +3284,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I35" t="n">
-        <v>2.66194426274884</v>
+        <v>2.661944262748833</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.31543654097791</v>
+        <v>63.31543654097811</v>
       </c>
       <c r="T35" t="n">
-        <v>149.9210255103387</v>
+        <v>149.9210255103391</v>
       </c>
       <c r="U35" t="n">
         <v>195.1016737286156</v>
@@ -3363,7 +3363,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I36" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D37" t="n">
-        <v>92.68666954346264</v>
+        <v>92.68666954346266</v>
       </c>
       <c r="E37" t="n">
-        <v>90.50515917181946</v>
+        <v>90.50515917181947</v>
       </c>
       <c r="F37" t="n">
-        <v>89.49224454818153</v>
+        <v>89.49224454818155</v>
       </c>
       <c r="G37" t="n">
-        <v>110.294963749775</v>
+        <v>110.2949637497751</v>
       </c>
       <c r="H37" t="n">
-        <v>90.58624660553119</v>
+        <v>90.5862466055312</v>
       </c>
       <c r="I37" t="n">
-        <v>46.37678291565711</v>
+        <v>46.37678291565696</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I38" t="n">
-        <v>2.66194426274884</v>
+        <v>2.661944262748811</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.31543654097811</v>
+        <v>63.31543654097836</v>
       </c>
       <c r="T38" t="n">
         <v>149.9210255103387</v>
       </c>
       <c r="U38" t="n">
-        <v>195.1016737286156</v>
+        <v>195.1016737286151</v>
       </c>
       <c r="V38" t="n">
         <v>271.8234549953852</v>
@@ -3600,7 +3600,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I39" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>90.58624660553119</v>
       </c>
       <c r="I40" t="n">
-        <v>46.37678291565695</v>
+        <v>46.37678291565694</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>350.9472422669617</v>
       </c>
       <c r="G41" t="n">
-        <v>355.4342377344932</v>
+        <v>355.4342377344935</v>
       </c>
       <c r="H41" t="n">
         <v>243.1985838482994</v>
       </c>
       <c r="I41" t="n">
-        <v>2.661944262748847</v>
+        <v>2.661944262748818</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.31543654097811</v>
+        <v>63.3154365409781</v>
       </c>
       <c r="T41" t="n">
         <v>149.9210255103387</v>
       </c>
       <c r="U41" t="n">
-        <v>195.1016737286156</v>
+        <v>195.1016737286154</v>
       </c>
       <c r="V41" t="n">
         <v>271.8234549953852</v>
@@ -3837,7 +3837,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I42" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9043041348055</v>
+        <v>41.90430413480533</v>
       </c>
       <c r="S43" t="n">
         <v>137.2901067372091</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.8050381887308</v>
+        <v>326.8050381887309</v>
       </c>
       <c r="C44" t="n">
         <v>309.3440882962578</v>
@@ -3983,19 +3983,19 @@
         <v>298.7542381459332</v>
       </c>
       <c r="E44" t="n">
-        <v>326.001566597512</v>
+        <v>326.0015665975121</v>
       </c>
       <c r="F44" t="n">
         <v>350.9472422669617</v>
       </c>
       <c r="G44" t="n">
-        <v>355.4342377344931</v>
+        <v>355.4342377344932</v>
       </c>
       <c r="H44" t="n">
         <v>243.1985838482994</v>
       </c>
       <c r="I44" t="n">
-        <v>2.661944262748818</v>
+        <v>2.661944262748811</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.31543654097808</v>
+        <v>63.31543654097791</v>
       </c>
       <c r="T44" t="n">
         <v>149.9210255103387</v>
@@ -4034,16 +4034,16 @@
         <v>195.1016737286165</v>
       </c>
       <c r="V44" t="n">
-        <v>271.8234549953851</v>
+        <v>271.8234549953852</v>
       </c>
       <c r="W44" t="n">
-        <v>293.3121652426632</v>
+        <v>293.3121652426633</v>
       </c>
       <c r="X44" t="n">
         <v>313.8022972037193</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.3091351813038</v>
+        <v>330.3091351813039</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>91.87734232789586</v>
       </c>
       <c r="I45" t="n">
-        <v>16.82120143337933</v>
+        <v>16.82120143337931</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D46" t="n">
-        <v>92.68666954346261</v>
+        <v>92.68666954346264</v>
       </c>
       <c r="E46" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181946</v>
       </c>
       <c r="F46" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818153</v>
       </c>
       <c r="G46" t="n">
         <v>110.294963749775</v>
       </c>
       <c r="H46" t="n">
-        <v>90.58624660553116</v>
+        <v>90.58624660553119</v>
       </c>
       <c r="I46" t="n">
-        <v>46.37678291565691</v>
+        <v>46.37678291565694</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.90430413480578</v>
+        <v>41.90430413480549</v>
       </c>
       <c r="S46" t="n">
         <v>137.2901067372091</v>
@@ -4189,7 +4189,7 @@
         <v>164.4659704721774</v>
       </c>
       <c r="U46" t="n">
-        <v>230.2938324926178</v>
+        <v>230.2938324926176</v>
       </c>
       <c r="V46" t="n">
         <v>196.2088398490783</v>
@@ -4201,7 +4201,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.655849877345</v>
+        <v>162.6558498773451</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247.340362388537</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C2" t="n">
-        <v>247.340362388537</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D2" t="n">
-        <v>247.340362388537</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E2" t="n">
-        <v>247.340362388537</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F2" t="n">
-        <v>247.340362388537</v>
+        <v>318.8311540579298</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>75.38237741382977</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W2" t="n">
-        <v>734.2379156767371</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X2" t="n">
-        <v>490.789139032637</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y2" t="n">
-        <v>247.340362388537</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.4649978087242</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C3" t="n">
-        <v>158.0119685275972</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0119685275972</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="E3" t="n">
-        <v>158.0119685275972</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>332.4649978087242</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>332.4649978087242</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X3" t="n">
-        <v>332.4649978087242</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.4649978087242</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="4">
@@ -4504,25 +4504,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.2773291604919</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="C5" t="n">
-        <v>482.2773291604919</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D5" t="n">
-        <v>482.2773291604919</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E5" t="n">
-        <v>482.2773291604919</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F5" t="n">
-        <v>475.3318284112885</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
         <v>231.8830517671884</v>
@@ -4595,22 +4595,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="Y5" t="n">
-        <v>482.2773291604919</v>
+        <v>497.7346397818405</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>863.9257143604303</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>690.5083698110992</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>690.5083698110992</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>462.2847515474883</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>227.1326433157456</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="7">
@@ -4744,10 +4744,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269.6754205035162</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>269.6754205035162</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>269.6754205035162</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>269.6754205035162</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X8" t="n">
-        <v>513.1241971476163</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y8" t="n">
-        <v>513.1241971476163</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>157.5801053801904</v>
       </c>
       <c r="C9" t="n">
         <v>19.28114311021272</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W9" t="n">
-        <v>116.7808214123601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="10">
@@ -4981,22 +4981,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5042,22 +5042,22 @@
         <v>248.0594737227673</v>
       </c>
       <c r="K11" t="n">
-        <v>526.3032237191596</v>
+        <v>847.2071821646127</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.656746350642</v>
+        <v>1642.779522293427</v>
       </c>
       <c r="M11" t="n">
-        <v>1946.490810595812</v>
+        <v>2533.674830799236</v>
       </c>
       <c r="N11" t="n">
-        <v>2848.285495293143</v>
+        <v>3435.469515496566</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.637006335583</v>
+        <v>3864.828847088889</v>
       </c>
       <c r="P11" t="n">
-        <v>4305.164982501232</v>
+        <v>4515.356823254538</v>
       </c>
       <c r="Q11" t="n">
         <v>4716.462640937215</v>
@@ -5136,7 +5136,7 @@
         <v>1840.426067385092</v>
       </c>
       <c r="P12" t="n">
-        <v>2421.565244584132</v>
+        <v>2234.402543056032</v>
       </c>
       <c r="Q12" t="n">
         <v>2570.180923535044</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>184.9395890016285</v>
+        <v>412.9291398996458</v>
       </c>
       <c r="C13" t="n">
-        <v>184.9395890016285</v>
+        <v>243.9929569717389</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9395890016285</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E13" t="n">
-        <v>184.9395890016285</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F13" t="n">
-        <v>184.9395890016285</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G13" t="n">
         <v>96.26188785539451</v>
@@ -5239,10 +5239,10 @@
         <v>412.9291398996458</v>
       </c>
       <c r="X13" t="n">
-        <v>184.9395890016285</v>
+        <v>412.9291398996458</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9395890016285</v>
+        <v>412.9291398996458</v>
       </c>
     </row>
     <row r="14">
@@ -5473,13 +5473,13 @@
         <v>702.3463099366064</v>
       </c>
       <c r="W16" t="n">
-        <v>412.9291398996458</v>
+        <v>505.8999035836516</v>
       </c>
       <c r="X16" t="n">
-        <v>184.9395890016285</v>
+        <v>277.9103526856342</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.26188785539451</v>
+        <v>277.9103526856342</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1284.09746564479</v>
       </c>
       <c r="F17" t="n">
-        <v>873.1115608551829</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G17" t="n">
-        <v>457.5933374115032</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H17" t="n">
         <v>155.4444613276153</v>
@@ -5516,19 +5516,19 @@
         <v>248.0594737227673</v>
       </c>
       <c r="K17" t="n">
-        <v>662.5690086267734</v>
+        <v>847.2071821646127</v>
       </c>
       <c r="L17" t="n">
-        <v>1044.656746350642</v>
+        <v>1642.779522293427</v>
       </c>
       <c r="M17" t="n">
-        <v>1946.490810595812</v>
+        <v>2265.071531685579</v>
       </c>
       <c r="N17" t="n">
-        <v>2848.285495293143</v>
+        <v>3166.86621638291</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.637006335583</v>
+        <v>3973.217727425351</v>
       </c>
       <c r="P17" t="n">
         <v>4305.164982501232</v>
@@ -5540,16 +5540,16 @@
         <v>4813.094392769725</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.645665481112</v>
+        <v>4692.645665481111</v>
       </c>
       <c r="T17" t="n">
-        <v>4484.716545294154</v>
+        <v>4484.716545294153</v>
       </c>
       <c r="U17" t="n">
         <v>4231.150406704895</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.087519361324</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W17" t="n">
         <v>3547.31886409121</v>
@@ -5610,10 +5610,10 @@
         <v>1840.426067385092</v>
       </c>
       <c r="P18" t="n">
-        <v>2234.402543056032</v>
+        <v>2421.565244584132</v>
       </c>
       <c r="Q18" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R18" t="n">
         <v>2600.592059963695</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.26188785539451</v>
+        <v>394.2916208501233</v>
       </c>
       <c r="C19" t="n">
-        <v>96.26188785539451</v>
+        <v>394.2916208501233</v>
       </c>
       <c r="D19" t="n">
-        <v>96.26188785539451</v>
+        <v>244.1749814377876</v>
       </c>
       <c r="E19" t="n">
         <v>96.26188785539451</v>
@@ -5701,22 +5701,22 @@
         <v>1468.765555631679</v>
       </c>
       <c r="T19" t="n">
-        <v>1246.144571846905</v>
+        <v>1455.4966036954</v>
       </c>
       <c r="U19" t="n">
-        <v>957.0307981424933</v>
+        <v>1166.382829990988</v>
       </c>
       <c r="V19" t="n">
-        <v>834.4611879339027</v>
+        <v>911.6983417851013</v>
       </c>
       <c r="W19" t="n">
-        <v>545.044017896942</v>
+        <v>622.2811717481407</v>
       </c>
       <c r="X19" t="n">
-        <v>317.0544669989246</v>
+        <v>394.2916208501233</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.26188785539451</v>
+        <v>394.2916208501233</v>
       </c>
     </row>
     <row r="20">
@@ -5753,22 +5753,22 @@
         <v>248.0594737227673</v>
       </c>
       <c r="K20" t="n">
-        <v>526.3032237191596</v>
+        <v>847.2071821646127</v>
       </c>
       <c r="L20" t="n">
-        <v>1044.656746350642</v>
+        <v>1642.779522293427</v>
       </c>
       <c r="M20" t="n">
-        <v>1946.490810595812</v>
+        <v>2533.674830799236</v>
       </c>
       <c r="N20" t="n">
-        <v>2848.285495293143</v>
+        <v>3435.469515496566</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.637006335583</v>
+        <v>3864.828847088889</v>
       </c>
       <c r="P20" t="n">
-        <v>4305.164982501232</v>
+        <v>4515.356823254538</v>
       </c>
       <c r="Q20" t="n">
         <v>4716.462640937215</v>
@@ -5844,13 +5844,13 @@
         <v>1485.083045709571</v>
       </c>
       <c r="O21" t="n">
-        <v>1840.426067385092</v>
+        <v>1998.952643239181</v>
       </c>
       <c r="P21" t="n">
-        <v>2234.402543056032</v>
+        <v>2264.813679484683</v>
       </c>
       <c r="Q21" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R21" t="n">
         <v>2600.592059963695</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.26188785539451</v>
+        <v>283.7609098193611</v>
       </c>
       <c r="C22" t="n">
-        <v>96.26188785539451</v>
+        <v>283.7609098193611</v>
       </c>
       <c r="D22" t="n">
-        <v>96.26188785539451</v>
+        <v>283.7609098193611</v>
       </c>
       <c r="E22" t="n">
-        <v>96.26188785539451</v>
+        <v>283.7609098193611</v>
       </c>
       <c r="F22" t="n">
-        <v>96.26188785539451</v>
+        <v>283.7609098193611</v>
       </c>
       <c r="G22" t="n">
-        <v>96.26188785539451</v>
+        <v>115.8581146430734</v>
       </c>
       <c r="H22" t="n">
         <v>96.26188785539451</v>
@@ -5932,28 +5932,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R22" t="n">
-        <v>1663.936172007395</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="S22" t="n">
-        <v>1468.765555631679</v>
+        <v>1567.586876449412</v>
       </c>
       <c r="T22" t="n">
-        <v>1246.144571846905</v>
+        <v>1344.965892664637</v>
       </c>
       <c r="U22" t="n">
-        <v>957.0307981424933</v>
+        <v>1055.852118960226</v>
       </c>
       <c r="V22" t="n">
-        <v>702.3463099366064</v>
+        <v>801.167630754339</v>
       </c>
       <c r="W22" t="n">
-        <v>412.9291398996458</v>
+        <v>511.7504607173784</v>
       </c>
       <c r="X22" t="n">
-        <v>184.9395890016285</v>
+        <v>283.7609098193611</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.26188785539451</v>
+        <v>283.7609098193611</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1284.097465644791</v>
       </c>
       <c r="F23" t="n">
-        <v>873.1115608551841</v>
+        <v>873.1115608551836</v>
       </c>
       <c r="G23" t="n">
-        <v>457.5933374115039</v>
+        <v>457.5933374115035</v>
       </c>
       <c r="H23" t="n">
-        <v>155.4444613276153</v>
+        <v>155.4444613276155</v>
       </c>
       <c r="I23" t="n">
         <v>96.26188785539451</v>
       </c>
       <c r="J23" t="n">
-        <v>248.0594737227673</v>
+        <v>415.4651227431203</v>
       </c>
       <c r="K23" t="n">
-        <v>847.2071821646127</v>
+        <v>693.7088727395126</v>
       </c>
       <c r="L23" t="n">
-        <v>1229.294919888481</v>
+        <v>1075.796610463381</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.128984133651</v>
+        <v>1977.630674708551</v>
       </c>
       <c r="N23" t="n">
-        <v>2848.285495293143</v>
+        <v>2879.425359405881</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.637006335583</v>
+        <v>3685.776870448322</v>
       </c>
       <c r="P23" t="n">
-        <v>4305.164982501232</v>
+        <v>4336.304846613971</v>
       </c>
       <c r="Q23" t="n">
-        <v>4716.462640937215</v>
+        <v>4747.602505049954</v>
       </c>
       <c r="R23" t="n">
         <v>4813.094392769725</v>
@@ -6066,28 +6066,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J24" t="n">
-        <v>167.8536431234389</v>
+        <v>292.6837681104437</v>
       </c>
       <c r="K24" t="n">
-        <v>368.3701805684597</v>
+        <v>493.2003055554644</v>
       </c>
       <c r="L24" t="n">
-        <v>684.3119515961117</v>
+        <v>809.1420765831165</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.357964547037</v>
+        <v>1197.188089534041</v>
       </c>
       <c r="N24" t="n">
-        <v>1485.083045709571</v>
+        <v>1609.913170696576</v>
       </c>
       <c r="O24" t="n">
-        <v>1840.426067385092</v>
+        <v>1965.256192372097</v>
       </c>
       <c r="P24" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q24" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R24" t="n">
         <v>2600.592059963695</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.26188785539451</v>
+        <v>413.1111643656945</v>
       </c>
       <c r="C25" t="n">
-        <v>96.26188785539451</v>
+        <v>244.1749814377876</v>
       </c>
       <c r="D25" t="n">
-        <v>96.26188785539451</v>
+        <v>244.1749814377876</v>
       </c>
       <c r="E25" t="n">
         <v>96.26188785539451</v>
@@ -6169,28 +6169,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R25" t="n">
-        <v>1663.936172007395</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="S25" t="n">
-        <v>1468.765555631679</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="T25" t="n">
-        <v>1378.259449844201</v>
+        <v>1540.136509040353</v>
       </c>
       <c r="U25" t="n">
-        <v>1089.14567613979</v>
+        <v>1251.022735335942</v>
       </c>
       <c r="V25" t="n">
-        <v>834.4611879339027</v>
+        <v>1151.310464444203</v>
       </c>
       <c r="W25" t="n">
-        <v>545.044017896942</v>
+        <v>861.893294407242</v>
       </c>
       <c r="X25" t="n">
-        <v>317.0544669989246</v>
+        <v>633.9037435092247</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.26188785539451</v>
+        <v>413.1111643656945</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2397.113933790196</v>
+        <v>2397.113933790197</v>
       </c>
       <c r="C26" t="n">
-        <v>2028.151416849784</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D26" t="n">
-        <v>1669.885718243034</v>
+        <v>1669.885718243035</v>
       </c>
       <c r="E26" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F26" t="n">
-        <v>873.1115608551822</v>
+        <v>873.1115608551841</v>
       </c>
       <c r="G26" t="n">
-        <v>457.5933374115031</v>
+        <v>457.5933374115039</v>
       </c>
       <c r="H26" t="n">
-        <v>155.4444613276152</v>
+        <v>155.4444613276153</v>
       </c>
       <c r="I26" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J26" t="n">
-        <v>248.0594737227673</v>
+        <v>415.4651227431204</v>
       </c>
       <c r="K26" t="n">
-        <v>526.3032237191595</v>
+        <v>694.1028043797312</v>
       </c>
       <c r="L26" t="n">
-        <v>1044.656746350641</v>
+        <v>1489.675144508545</v>
       </c>
       <c r="M26" t="n">
-        <v>1946.490810595811</v>
+        <v>1946.490810595812</v>
       </c>
       <c r="N26" t="n">
         <v>2848.285495293142</v>
@@ -6242,34 +6242,34 @@
         <v>3654.637006335583</v>
       </c>
       <c r="P26" t="n">
-        <v>4305.164982501231</v>
+        <v>4305.164982501232</v>
       </c>
       <c r="Q26" t="n">
-        <v>4716.462640937214</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R26" t="n">
-        <v>4813.094392769724</v>
+        <v>4813.094392769725</v>
       </c>
       <c r="S26" t="n">
-        <v>4692.645665481111</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T26" t="n">
-        <v>4484.716545294152</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U26" t="n">
         <v>4231.150406704895</v>
       </c>
       <c r="V26" t="n">
-        <v>3900.087519361324</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W26" t="n">
-        <v>3547.318864091209</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X26" t="n">
-        <v>3173.85310583013</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y26" t="n">
-        <v>2783.713773854318</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>113.2530004143635</v>
       </c>
       <c r="I27" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J27" t="n">
-        <v>167.8536431234389</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K27" t="n">
-        <v>368.3701805684597</v>
+        <v>630.1907652109126</v>
       </c>
       <c r="L27" t="n">
-        <v>684.3119515961117</v>
+        <v>1050.815042308691</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.357964547037</v>
+        <v>1438.861055259616</v>
       </c>
       <c r="N27" t="n">
-        <v>1485.083045709571</v>
+        <v>1851.58613642215</v>
       </c>
       <c r="O27" t="n">
-        <v>1840.426067385092</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P27" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q27" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R27" t="n">
         <v>2600.592059963695</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="C28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="J28" t="n">
         <v>127.528778430331</v>
@@ -6406,28 +6406,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R28" t="n">
-        <v>1663.936172007395</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="S28" t="n">
-        <v>1468.765555631679</v>
+        <v>1567.586876449412</v>
       </c>
       <c r="T28" t="n">
-        <v>1246.144571846905</v>
+        <v>1344.965892664638</v>
       </c>
       <c r="U28" t="n">
-        <v>1089.145676139789</v>
+        <v>1055.852118960226</v>
       </c>
       <c r="V28" t="n">
-        <v>834.4611879339025</v>
+        <v>801.1676307543393</v>
       </c>
       <c r="W28" t="n">
-        <v>545.0440178969419</v>
+        <v>511.7504607173786</v>
       </c>
       <c r="X28" t="n">
-        <v>317.0544669989246</v>
+        <v>283.7609098193613</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.26188785539449</v>
+        <v>96.26188785539451</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>2028.151416849785</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.885718243034</v>
+        <v>1669.885718243035</v>
       </c>
       <c r="E29" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F29" t="n">
-        <v>873.1115608551828</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G29" t="n">
-        <v>457.5933374115031</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H29" t="n">
         <v>155.4444613276152</v>
@@ -6461,19 +6461,19 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J29" t="n">
-        <v>248.0594737227673</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K29" t="n">
-        <v>526.3032237191596</v>
+        <v>847.2071821646127</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.656746350642</v>
+        <v>1229.294919888481</v>
       </c>
       <c r="M29" t="n">
-        <v>1946.490810595812</v>
+        <v>2131.128984133651</v>
       </c>
       <c r="N29" t="n">
-        <v>2848.285495293143</v>
+        <v>2848.285495293142</v>
       </c>
       <c r="O29" t="n">
         <v>3654.637006335583</v>
@@ -6491,7 +6491,7 @@
         <v>4692.645665481112</v>
       </c>
       <c r="T29" t="n">
-        <v>4484.716545294153</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U29" t="n">
         <v>4231.150406704895</v>
@@ -6540,13 +6540,13 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J30" t="n">
-        <v>167.8536431234389</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K30" t="n">
-        <v>368.3701805684597</v>
+        <v>368.3701805684598</v>
       </c>
       <c r="L30" t="n">
-        <v>684.3119515961117</v>
+        <v>684.3119515961118</v>
       </c>
       <c r="M30" t="n">
         <v>1072.357964547037</v>
@@ -6555,13 +6555,13 @@
         <v>1485.083045709571</v>
       </c>
       <c r="O30" t="n">
-        <v>1840.426067385092</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P30" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q30" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R30" t="n">
         <v>2600.592059963695</v>
@@ -6643,28 +6643,28 @@
         <v>1762.757492825128</v>
       </c>
       <c r="R31" t="n">
-        <v>1663.936172007395</v>
+        <v>1762.757492825128</v>
       </c>
       <c r="S31" t="n">
-        <v>1468.765555631679</v>
+        <v>1567.586876449412</v>
       </c>
       <c r="T31" t="n">
-        <v>1246.144571846905</v>
+        <v>1344.965892664638</v>
       </c>
       <c r="U31" t="n">
-        <v>1089.14567613979</v>
+        <v>1055.852118960226</v>
       </c>
       <c r="V31" t="n">
-        <v>834.4611879339027</v>
+        <v>801.1676307543393</v>
       </c>
       <c r="W31" t="n">
-        <v>545.044017896942</v>
+        <v>511.7504607173786</v>
       </c>
       <c r="X31" t="n">
-        <v>317.0544669989246</v>
+        <v>283.7609098193613</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.26188785539451</v>
+        <v>277.9103526856342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2397.113933790195</v>
+        <v>2397.113933790197</v>
       </c>
       <c r="C32" t="n">
-        <v>2028.151416849784</v>
+        <v>2028.151416849785</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.885718243033</v>
+        <v>1669.885718243035</v>
       </c>
       <c r="E32" t="n">
-        <v>1284.097465644789</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F32" t="n">
-        <v>873.1115608551822</v>
+        <v>873.111560855183</v>
       </c>
       <c r="G32" t="n">
-        <v>457.5933374115029</v>
+        <v>457.5933374115033</v>
       </c>
       <c r="H32" t="n">
-        <v>155.4444613276153</v>
+        <v>155.4444613276152</v>
       </c>
       <c r="I32" t="n">
         <v>96.26188785539451</v>
       </c>
       <c r="J32" t="n">
-        <v>248.0594737227673</v>
+        <v>415.4651227431204</v>
       </c>
       <c r="K32" t="n">
-        <v>526.3032237191596</v>
+        <v>777.8569680649002</v>
       </c>
       <c r="L32" t="n">
-        <v>1044.656746350642</v>
+        <v>1573.429308193714</v>
       </c>
       <c r="M32" t="n">
-        <v>1946.490810595812</v>
+        <v>2475.263372438885</v>
       </c>
       <c r="N32" t="n">
-        <v>2848.285495293143</v>
+        <v>3377.058057136215</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.637006335583</v>
+        <v>4183.409568178657</v>
       </c>
       <c r="P32" t="n">
-        <v>4305.164982501232</v>
+        <v>4515.356823254538</v>
       </c>
       <c r="Q32" t="n">
         <v>4716.462640937215</v>
@@ -6725,25 +6725,25 @@
         <v>4813.094392769725</v>
       </c>
       <c r="S32" t="n">
-        <v>4692.645665481111</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T32" t="n">
-        <v>4484.716545294152</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U32" t="n">
-        <v>4231.150406704894</v>
+        <v>4231.150406704895</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.087519361323</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.318864091209</v>
+        <v>3547.318864091211</v>
       </c>
       <c r="X32" t="n">
-        <v>3173.853105830129</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y32" t="n">
-        <v>2783.713773854317</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6777,13 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J33" t="n">
-        <v>167.8536431234389</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K33" t="n">
-        <v>368.3701805684597</v>
+        <v>368.3701805684598</v>
       </c>
       <c r="L33" t="n">
-        <v>684.3119515961117</v>
+        <v>684.3119515961118</v>
       </c>
       <c r="M33" t="n">
         <v>1072.357964547037</v>
@@ -6792,13 +6792,13 @@
         <v>1485.083045709571</v>
       </c>
       <c r="O33" t="n">
-        <v>1840.426067385092</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P33" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q33" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R33" t="n">
         <v>2600.592059963695</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.8983365001461</v>
+        <v>733.8983365001474</v>
       </c>
       <c r="C34" t="n">
-        <v>621.4558944558248</v>
+        <v>621.4558944558262</v>
       </c>
       <c r="D34" t="n">
-        <v>527.8329959270748</v>
+        <v>527.832995927076</v>
       </c>
       <c r="E34" t="n">
-        <v>436.4136432282672</v>
+        <v>436.4136432282685</v>
       </c>
       <c r="F34" t="n">
-        <v>346.0174366139425</v>
+        <v>346.0174366139436</v>
       </c>
       <c r="G34" t="n">
-        <v>234.6083823212402</v>
+        <v>234.6083823212416</v>
       </c>
       <c r="H34" t="n">
-        <v>143.1071231237348</v>
+        <v>143.1071231237354</v>
       </c>
       <c r="I34" t="n">
         <v>96.26188785539451</v>
       </c>
       <c r="J34" t="n">
-        <v>182.8982938703332</v>
+        <v>182.8982938703333</v>
       </c>
       <c r="K34" t="n">
-        <v>419.4857520478002</v>
+        <v>419.4857520478004</v>
       </c>
       <c r="L34" t="n">
-        <v>762.2782776407255</v>
+        <v>762.2782776407257</v>
       </c>
       <c r="M34" t="n">
         <v>1131.084180701766</v>
@@ -6880,28 +6880,28 @@
         <v>2205.713616345146</v>
       </c>
       <c r="R34" t="n">
-        <v>2163.386036410998</v>
+        <v>2163.386036411</v>
       </c>
       <c r="S34" t="n">
-        <v>2024.709160918868</v>
+        <v>2024.709160918869</v>
       </c>
       <c r="T34" t="n">
-        <v>1858.581918017679</v>
+        <v>1858.58191801768</v>
       </c>
       <c r="U34" t="n">
-        <v>1625.961885196853</v>
+        <v>1625.961885196854</v>
       </c>
       <c r="V34" t="n">
-        <v>1427.771137874551</v>
+        <v>1427.771137874553</v>
       </c>
       <c r="W34" t="n">
-        <v>1194.847708721176</v>
+        <v>1194.847708721178</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.351898706745</v>
+        <v>1023.351898706746</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.0530604468001</v>
+        <v>859.0530604468015</v>
       </c>
     </row>
     <row r="35">
@@ -6932,40 +6932,40 @@
         <v>81.65671813272797</v>
       </c>
       <c r="I35" t="n">
-        <v>78.96788554409278</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J35" t="n">
-        <v>230.7654714114656</v>
+        <v>398.1711204318187</v>
       </c>
       <c r="K35" t="n">
-        <v>509.0092214078578</v>
+        <v>676.414870428211</v>
       </c>
       <c r="L35" t="n">
-        <v>891.0969591317261</v>
+        <v>1058.502608152079</v>
       </c>
       <c r="M35" t="n">
-        <v>1347.912625218992</v>
+        <v>1515.318274239345</v>
       </c>
       <c r="N35" t="n">
-        <v>1983.585379728057</v>
+        <v>2417.112958936676</v>
       </c>
       <c r="O35" t="n">
-        <v>2789.936890770497</v>
+        <v>3223.464469979117</v>
       </c>
       <c r="P35" t="n">
-        <v>3440.464866936146</v>
+        <v>3650.656707689453</v>
       </c>
       <c r="Q35" t="n">
-        <v>3851.762525372129</v>
+        <v>3851.76252537213</v>
       </c>
       <c r="R35" t="n">
-        <v>3948.394277204639</v>
+        <v>3948.39427720464</v>
       </c>
       <c r="S35" t="n">
-        <v>3884.439290799611</v>
+        <v>3884.439290799612</v>
       </c>
       <c r="T35" t="n">
-        <v>3733.003911496238</v>
+        <v>3733.003911496239</v>
       </c>
       <c r="U35" t="n">
         <v>3535.931513790566</v>
@@ -6980,7 +6980,7 @@
         <v>2648.115435566559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2314.469844474332</v>
+        <v>2314.469844474333</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>95.9589981030618</v>
       </c>
       <c r="I36" t="n">
-        <v>78.96788554409278</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J36" t="n">
-        <v>150.5596408121372</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K36" t="n">
-        <v>351.0761782571579</v>
+        <v>351.0761782571581</v>
       </c>
       <c r="L36" t="n">
-        <v>667.01794928481</v>
+        <v>667.0179492848101</v>
       </c>
       <c r="M36" t="n">
         <v>1055.063962235735</v>
@@ -7029,13 +7029,13 @@
         <v>1467.789043398269</v>
       </c>
       <c r="O36" t="n">
-        <v>1823.132065073791</v>
+        <v>2189.63515578637</v>
       </c>
       <c r="P36" t="n">
-        <v>2217.108540744731</v>
+        <v>2455.496192031872</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R36" t="n">
         <v>2583.298057652393</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>716.6043341888454</v>
+        <v>716.6043341888453</v>
       </c>
       <c r="C37" t="n">
-        <v>604.1618921445241</v>
+        <v>604.161892144524</v>
       </c>
       <c r="D37" t="n">
-        <v>510.538993615774</v>
+        <v>510.5389936157738</v>
       </c>
       <c r="E37" t="n">
-        <v>419.1196409169664</v>
+        <v>419.1196409169663</v>
       </c>
       <c r="F37" t="n">
-        <v>328.7234343026416</v>
+        <v>328.7234343026415</v>
       </c>
       <c r="G37" t="n">
-        <v>217.3143800099396</v>
+        <v>217.3143800099394</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8131208124333</v>
+        <v>125.8131208124332</v>
       </c>
       <c r="I37" t="n">
-        <v>78.96788554409278</v>
+        <v>78.96788554409279</v>
       </c>
       <c r="J37" t="n">
-        <v>165.6042915590314</v>
+        <v>165.6042915590316</v>
       </c>
       <c r="K37" t="n">
-        <v>402.1917497364984</v>
+        <v>402.1917497364986</v>
       </c>
       <c r="L37" t="n">
-        <v>744.9842753294236</v>
+        <v>744.9842753294238</v>
       </c>
       <c r="M37" t="n">
         <v>1113.790178390464</v>
       </c>
       <c r="N37" t="n">
-        <v>1480.577881140502</v>
+        <v>1480.577881140503</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.576201541056</v>
+        <v>1807.576201541057</v>
       </c>
       <c r="P37" t="n">
         <v>2071.850402722025</v>
@@ -7138,7 +7138,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.7590581354996</v>
+        <v>841.7590581354995</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1984.363745293796</v>
+        <v>1984.363745293797</v>
       </c>
       <c r="C38" t="n">
-        <v>1671.89496923697</v>
+        <v>1671.894969236971</v>
       </c>
       <c r="D38" t="n">
         <v>1370.123011513805</v>
@@ -7166,22 +7166,22 @@
         <v>327.3118533330303</v>
       </c>
       <c r="H38" t="n">
-        <v>81.65671813272799</v>
+        <v>81.65671813272796</v>
       </c>
       <c r="I38" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J38" t="n">
-        <v>230.7654714114656</v>
+        <v>230.7654714114657</v>
       </c>
       <c r="K38" t="n">
-        <v>509.0092214078579</v>
+        <v>675.8607463874566</v>
       </c>
       <c r="L38" t="n">
-        <v>891.0969591317262</v>
+        <v>1057.948484111325</v>
       </c>
       <c r="M38" t="n">
-        <v>1347.912625218992</v>
+        <v>1514.764150198591</v>
       </c>
       <c r="N38" t="n">
         <v>1983.585379728057</v>
@@ -7205,10 +7205,10 @@
         <v>3733.003911496239</v>
       </c>
       <c r="U38" t="n">
-        <v>3535.931513790566</v>
+        <v>3535.931513790567</v>
       </c>
       <c r="V38" t="n">
-        <v>3261.362367330581</v>
+        <v>3261.362367330582</v>
       </c>
       <c r="W38" t="n">
         <v>2965.087452944053</v>
@@ -7217,7 +7217,7 @@
         <v>2648.115435566559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2314.469844474332</v>
+        <v>2314.469844474334</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H39" t="n">
-        <v>95.95899810306182</v>
+        <v>95.9589981030618</v>
       </c>
       <c r="I39" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J39" t="n">
-        <v>150.5596408121372</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K39" t="n">
-        <v>351.0761782571579</v>
+        <v>351.0761782571581</v>
       </c>
       <c r="L39" t="n">
-        <v>667.01794928481</v>
+        <v>667.0179492848101</v>
       </c>
       <c r="M39" t="n">
         <v>1055.063962235735</v>
@@ -7266,13 +7266,13 @@
         <v>1467.789043398269</v>
       </c>
       <c r="O39" t="n">
-        <v>1823.132065073791</v>
+        <v>2189.63515578637</v>
       </c>
       <c r="P39" t="n">
-        <v>2404.27124227283</v>
+        <v>2455.496192031872</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R39" t="n">
         <v>2583.298057652393</v>
@@ -7391,46 +7391,46 @@
         <v>1671.89496923697</v>
       </c>
       <c r="D41" t="n">
-        <v>1370.123011513805</v>
+        <v>1370.123011513806</v>
       </c>
       <c r="E41" t="n">
         <v>1040.828499799147</v>
       </c>
       <c r="F41" t="n">
-        <v>686.3363358931246</v>
+        <v>686.3363358931249</v>
       </c>
       <c r="G41" t="n">
         <v>327.3118533330304</v>
       </c>
       <c r="H41" t="n">
-        <v>81.65671813272799</v>
+        <v>81.65671813272796</v>
       </c>
       <c r="I41" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J41" t="n">
-        <v>230.7654714114656</v>
+        <v>230.7654714114657</v>
       </c>
       <c r="K41" t="n">
-        <v>509.0092214078579</v>
+        <v>509.009221407858</v>
       </c>
       <c r="L41" t="n">
-        <v>891.0969591317262</v>
+        <v>1304.581561536672</v>
       </c>
       <c r="M41" t="n">
-        <v>1347.912625218992</v>
+        <v>2206.415625781842</v>
       </c>
       <c r="N41" t="n">
-        <v>1983.585379728057</v>
+        <v>2954.409376695502</v>
       </c>
       <c r="O41" t="n">
-        <v>2789.936890770498</v>
+        <v>3383.768708287825</v>
       </c>
       <c r="P41" t="n">
-        <v>3440.464866936147</v>
+        <v>3715.715963363705</v>
       </c>
       <c r="Q41" t="n">
-        <v>3851.76252537213</v>
+        <v>3916.821781046383</v>
       </c>
       <c r="R41" t="n">
         <v>3948.39427720464</v>
@@ -7482,19 +7482,19 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H42" t="n">
-        <v>95.95899810306182</v>
+        <v>95.9589981030618</v>
       </c>
       <c r="I42" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J42" t="n">
-        <v>150.5596408121372</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K42" t="n">
-        <v>351.0761782571579</v>
+        <v>351.0761782571581</v>
       </c>
       <c r="L42" t="n">
-        <v>667.01794928481</v>
+        <v>667.0179492848101</v>
       </c>
       <c r="M42" t="n">
         <v>1055.063962235735</v>
@@ -7503,13 +7503,13 @@
         <v>1467.789043398269</v>
       </c>
       <c r="O42" t="n">
-        <v>1823.132065073791</v>
+        <v>2189.63515578637</v>
       </c>
       <c r="P42" t="n">
-        <v>2217.108540744731</v>
+        <v>2455.496192031872</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R42" t="n">
         <v>2583.298057652393</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>716.6043341888447</v>
+        <v>716.6043341888452</v>
       </c>
       <c r="C43" t="n">
-        <v>604.1618921445234</v>
+        <v>604.1618921445239</v>
       </c>
       <c r="D43" t="n">
-        <v>510.5389936157733</v>
+        <v>510.5389936157737</v>
       </c>
       <c r="E43" t="n">
-        <v>419.1196409169657</v>
+        <v>419.1196409169662</v>
       </c>
       <c r="F43" t="n">
-        <v>328.723434302641</v>
+        <v>328.7234343026414</v>
       </c>
       <c r="G43" t="n">
         <v>217.3143800099394</v>
@@ -7585,7 +7585,7 @@
         <v>1807.576201541056</v>
       </c>
       <c r="P43" t="n">
-        <v>2071.850402722024</v>
+        <v>2071.850402722025</v>
       </c>
       <c r="Q43" t="n">
         <v>2188.419614033844</v>
@@ -7603,16 +7603,16 @@
         <v>1608.667882885552</v>
       </c>
       <c r="V43" t="n">
-        <v>1410.47713556325</v>
+        <v>1410.477135563251</v>
       </c>
       <c r="W43" t="n">
-        <v>1177.553706409875</v>
+        <v>1177.553706409876</v>
       </c>
       <c r="X43" t="n">
-        <v>1006.057896395443</v>
+        <v>1006.057896395444</v>
       </c>
       <c r="Y43" t="n">
-        <v>841.7590581354989</v>
+        <v>841.7590581354993</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>78.96788554409279</v>
       </c>
       <c r="J44" t="n">
-        <v>230.7654714114656</v>
+        <v>398.1711204318187</v>
       </c>
       <c r="K44" t="n">
-        <v>509.0092214078579</v>
+        <v>997.318828873664</v>
       </c>
       <c r="L44" t="n">
-        <v>891.0969591317262</v>
+        <v>1379.406566597532</v>
       </c>
       <c r="M44" t="n">
-        <v>1347.912625218992</v>
+        <v>1836.222232684798</v>
       </c>
       <c r="N44" t="n">
-        <v>2249.707309916323</v>
+        <v>2738.016917382129</v>
       </c>
       <c r="O44" t="n">
-        <v>2789.936890770498</v>
+        <v>3167.376248974452</v>
       </c>
       <c r="P44" t="n">
-        <v>3440.464866936147</v>
+        <v>3650.656707689453</v>
       </c>
       <c r="Q44" t="n">
         <v>3851.76252537213</v>
@@ -7688,7 +7688,7 @@
         <v>2965.087452944053</v>
       </c>
       <c r="X44" t="n">
-        <v>2648.115435566558</v>
+        <v>2648.115435566559</v>
       </c>
       <c r="Y44" t="n">
         <v>2314.469844474332</v>
@@ -7719,34 +7719,34 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H45" t="n">
-        <v>95.95899810306182</v>
+        <v>95.9589981030618</v>
       </c>
       <c r="I45" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J45" t="n">
-        <v>150.5596408121372</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K45" t="n">
-        <v>351.0761782571579</v>
+        <v>351.0761782571581</v>
       </c>
       <c r="L45" t="n">
-        <v>667.01794928481</v>
+        <v>667.0179492848101</v>
       </c>
       <c r="M45" t="n">
-        <v>1055.063962235735</v>
+        <v>1421.567052948314</v>
       </c>
       <c r="N45" t="n">
-        <v>1467.789043398269</v>
+        <v>1834.292134110849</v>
       </c>
       <c r="O45" t="n">
-        <v>1823.132065073791</v>
+        <v>2189.63515578637</v>
       </c>
       <c r="P45" t="n">
-        <v>2217.108540744731</v>
+        <v>2455.496192031872</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R45" t="n">
         <v>2583.298057652393</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>716.6043341888451</v>
+        <v>716.6043341888452</v>
       </c>
       <c r="C46" t="n">
-        <v>604.1618921445238</v>
+        <v>604.1618921445239</v>
       </c>
       <c r="D46" t="n">
-        <v>510.5389936157736</v>
+        <v>510.5389936157738</v>
       </c>
       <c r="E46" t="n">
-        <v>419.1196409169661</v>
+        <v>419.1196409169663</v>
       </c>
       <c r="F46" t="n">
-        <v>328.7234343026414</v>
+        <v>328.7234343026415</v>
       </c>
       <c r="G46" t="n">
-        <v>217.3143800099393</v>
+        <v>217.3143800099394</v>
       </c>
       <c r="H46" t="n">
         <v>125.8131208124331</v>
@@ -7816,7 +7816,7 @@
         <v>1113.790178390464</v>
       </c>
       <c r="N46" t="n">
-        <v>1480.577881140502</v>
+        <v>1480.577881140503</v>
       </c>
       <c r="O46" t="n">
         <v>1807.576201541057</v>
@@ -7825,10 +7825,10 @@
         <v>2071.850402722025</v>
       </c>
       <c r="Q46" t="n">
-        <v>2188.419614033844</v>
+        <v>2188.419614033845</v>
       </c>
       <c r="R46" t="n">
-        <v>2146.092034099697</v>
+        <v>2146.092034099698</v>
       </c>
       <c r="S46" t="n">
         <v>2007.415158607567</v>
@@ -7849,7 +7849,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.7590581354992</v>
+        <v>841.7590581354993</v>
       </c>
     </row>
   </sheetData>
@@ -8301,10 +8301,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8690,25 +8690,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>137.6422069773876</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>438.4642852712553</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>129.4095347731699</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.02405386908151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>137.6422069773877</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>167.1478215200874</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>129.4095347731699</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>51.74237349398143</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>137.6422069773876</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>438.4642852712553</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>160.1278543980698</v>
       </c>
       <c r="P21" t="n">
-        <v>129.4095347731699</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>250.8437188182074</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>34.26201167829711</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>129.4095347731699</v>
+        <v>244.1141067935095</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.3979107476954482</v>
       </c>
       <c r="L26" t="n">
-        <v>137.6422069773868</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>105.7399051213396</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>129.4095347731699</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>137.6422069773876</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>250.8437188182068</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>370.2051421339179</v>
       </c>
       <c r="P30" t="n">
-        <v>129.4095347731699</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>84.99807608625002</v>
       </c>
       <c r="L32" t="n">
-        <v>137.6422069773876</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>370.2051421339179</v>
       </c>
       <c r="P33" t="n">
-        <v>129.4095347731699</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>168.5368939187861</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>96.207053166116</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>370.2051421339184</v>
       </c>
       <c r="P36" t="n">
-        <v>129.4095347731701</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>168.5368939187865</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>168.5368939187871</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>370.2051421339184</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.02405386908197</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>168.5368939187871</v>
+        <v>281.9924458426194</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>370.2051421339184</v>
       </c>
       <c r="P42" t="n">
-        <v>129.4095347731701</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>111.9901507695481</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>152.861821857697</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>370.2051421339184</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>129.4095347731701</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642072</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>71.99131633920193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.62210857507547</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>2.361714593031451</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>78.43284308975313</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H13" t="n">
         <v>146.5150500802809</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>92.04105604716571</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.7937292173232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.2585115300101</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>130.7937292173233</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5150500802809</v>
+        <v>127.1147855604788</v>
       </c>
       <c r="I22" t="n">
         <v>102.3055863904067</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.7937292173232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T25" t="n">
-        <v>130.7937292173235</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>153.4224951410061</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>130.7937292173231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>32.96062160776765</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.83310760955521</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>130.7937292173234</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>212.792601789705</v>
       </c>
     </row>
     <row r="32">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1420972.832582698</v>
+        <v>1420972.832582699</v>
       </c>
     </row>
     <row r="10">
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910622</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44743.04277979975</v>
+        <v>44743.04277979979</v>
       </c>
       <c r="M3" t="n">
-        <v>185927.1870186581</v>
+        <v>185927.1870186582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.282204220847536e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>40942.36953969284</v>
+        <v>40942.36953969285</v>
       </c>
       <c r="F4" t="n">
         <v>40942.36953969285</v>
       </c>
       <c r="G4" t="n">
-        <v>40942.36953969285</v>
+        <v>40942.36953969284</v>
       </c>
       <c r="H4" t="n">
         <v>40942.36953969285</v>
@@ -26439,16 +26439,16 @@
         <v>40942.36953969285</v>
       </c>
       <c r="J4" t="n">
-        <v>40942.36953969287</v>
+        <v>40942.36953969283</v>
       </c>
       <c r="K4" t="n">
-        <v>40942.36953969288</v>
+        <v>40942.36953969283</v>
       </c>
       <c r="L4" t="n">
-        <v>59345.73312429641</v>
+        <v>59345.7331242964</v>
       </c>
       <c r="M4" t="n">
-        <v>83731.80533908245</v>
+        <v>83731.80533908244</v>
       </c>
       <c r="N4" t="n">
         <v>83731.80533908246</v>
@@ -26494,13 +26494,13 @@
         <v>94523.02291287651</v>
       </c>
       <c r="K5" t="n">
-        <v>94523.02291287652</v>
+        <v>94523.02291287651</v>
       </c>
       <c r="L5" t="n">
         <v>99224.90149219525</v>
       </c>
       <c r="M5" t="n">
-        <v>86081.45973560592</v>
+        <v>86081.45973560595</v>
       </c>
       <c r="N5" t="n">
         <v>86081.45973560595</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-465247.6485825259</v>
+        <v>-465290.8743607833</v>
       </c>
       <c r="C6" t="n">
         <v>-394346.9574690326</v>
@@ -26528,37 +26528,37 @@
         <v>-394346.9574690326</v>
       </c>
       <c r="E6" t="n">
-        <v>-1210109.355530771</v>
+        <v>-1210189.358775844</v>
       </c>
       <c r="F6" t="n">
-        <v>-135465.3924525694</v>
+        <v>-135545.3956976422</v>
       </c>
       <c r="G6" t="n">
-        <v>-135465.3924525694</v>
+        <v>-135545.3956976422</v>
       </c>
       <c r="H6" t="n">
-        <v>-135465.3924525694</v>
+        <v>-135545.3956976423</v>
       </c>
       <c r="I6" t="n">
-        <v>-135465.3924525693</v>
+        <v>-135545.3956976422</v>
       </c>
       <c r="J6" t="n">
-        <v>-198525.3350516756</v>
+        <v>-198605.3382967484</v>
       </c>
       <c r="K6" t="n">
-        <v>-135465.3924525694</v>
+        <v>-135545.3956976422</v>
       </c>
       <c r="L6" t="n">
-        <v>-203313.6773962914</v>
+        <v>-203313.6773962915</v>
       </c>
       <c r="M6" t="n">
-        <v>-355740.4520933465</v>
+        <v>-355740.4520933466</v>
       </c>
       <c r="N6" t="n">
         <v>-169813.2650746884</v>
       </c>
       <c r="O6" t="n">
-        <v>-169813.2650746885</v>
+        <v>-169813.2650746884</v>
       </c>
       <c r="P6" t="n">
         <v>-169813.2650746884</v>
@@ -26701,22 +26701,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M2" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="N2" t="n">
         <v>55.92880347474972</v>
@@ -26725,7 +26725,7 @@
         <v>55.92880347474971</v>
       </c>
       <c r="P2" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
     </row>
     <row r="3">
@@ -26759,25 +26759,25 @@
         <v>979.9994560906737</v>
       </c>
       <c r="J3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="K3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="L3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="M3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="N3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="O3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
       <c r="P3" t="n">
-        <v>979.9994560906737</v>
+        <v>979.9994560906738</v>
       </c>
     </row>
     <row r="4">
@@ -26820,7 +26820,7 @@
         <v>1203.273598192431</v>
       </c>
       <c r="M4" t="n">
-        <v>987.0985693011597</v>
+        <v>987.09856930116</v>
       </c>
       <c r="N4" t="n">
         <v>987.09856930116</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.35275527605942e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.2593093147723</v>
+        <v>962.2593093147722</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776588</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.0842804235007</v>
+        <v>746.0842804235014</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.2593093147723</v>
+        <v>962.2593093147722</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>102.2971322982741</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>283.9345801551863</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,19 +27433,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>121.7199212818529</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>63.60154120331906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,10 +27467,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>95.46948193424203</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>133.788295952972</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>2.450847870282644</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.2901994470698</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>134.925032609203</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.027707413939311</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,16 +27907,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>142.3182406998695</v>
+        <v>147.6302790004598</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>35.79252634103781</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27980,7 +27980,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>109.2483036843516</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28065,13 +28065,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="C34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="D34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="E34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="F34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="G34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="H34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="I34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="J34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="K34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="L34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="M34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="N34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="O34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="P34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="R34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="S34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="T34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="U34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="V34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="W34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="X34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474974</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="C35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="D35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="E35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="F35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="G35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="H35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="I35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="T35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="U35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="V35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="W35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="X35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="C37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="D37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="E37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="F37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="G37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="H37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="I37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="J37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="K37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="L37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="M37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="N37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="O37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="P37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="R37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="S37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="T37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="U37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="V37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="W37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="X37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.92880347474972</v>
+        <v>55.9288034747497</v>
       </c>
     </row>
     <row r="38">
@@ -30414,10 +30414,10 @@
         <v>55.92880347474972</v>
       </c>
       <c r="N40" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="O40" t="n">
-        <v>55.92880347474972</v>
+        <v>55.92880347474977</v>
       </c>
       <c r="P40" t="n">
         <v>55.92880347474972</v>
@@ -30472,7 +30472,7 @@
         <v>55.92880347474971</v>
       </c>
       <c r="G41" t="n">
-        <v>55.92880347474971</v>
+        <v>55.92880347474937</v>
       </c>
       <c r="H41" t="n">
         <v>55.92880347474971</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="C44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="D44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="E44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="F44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="G44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="H44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="I44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="T44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="U44" t="n">
-        <v>55.92880347474863</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="V44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="W44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="X44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="C46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="D46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="E46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="F46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="G46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="H46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="I46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="J46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="K46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="L46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="M46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="N46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="O46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="P46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="R46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="S46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="T46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="U46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="V46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="W46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="X46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.92880347474975</v>
+        <v>55.92880347474972</v>
       </c>
     </row>
   </sheetData>
@@ -32953,13 +32953,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M26" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N26" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O26" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P26" t="n">
         <v>566.5332534076744</v>
@@ -32968,16 +32968,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R26" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S26" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T26" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H27" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I27" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J27" t="n">
         <v>199.1525309778227</v>
@@ -33029,16 +33029,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L27" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M27" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N27" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O27" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P27" t="n">
         <v>402.5209086724128</v>
@@ -33053,7 +33053,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T27" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U27" t="n">
         <v>0.138679168314718</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H28" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I28" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J28" t="n">
         <v>124.9418978691339</v>
@@ -33114,10 +33114,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N28" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O28" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P28" t="n">
         <v>213.7362748168904</v>
@@ -33132,10 +33132,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T28" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33190,13 +33190,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M29" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N29" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O29" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P29" t="n">
         <v>566.5332534076744</v>
@@ -33205,16 +33205,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R29" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S29" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T29" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H30" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I30" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J30" t="n">
         <v>199.1525309778227</v>
@@ -33266,16 +33266,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L30" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M30" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N30" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O30" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P30" t="n">
         <v>402.5209086724128</v>
@@ -33290,7 +33290,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T30" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U30" t="n">
         <v>0.138679168314718</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H31" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I31" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J31" t="n">
         <v>124.9418978691339</v>
@@ -33351,10 +33351,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N31" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O31" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P31" t="n">
         <v>213.7362748168904</v>
@@ -33369,10 +33369,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T31" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33427,13 +33427,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M32" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N32" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O32" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P32" t="n">
         <v>566.5332534076744</v>
@@ -33442,16 +33442,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R32" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S32" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T32" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H33" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I33" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J33" t="n">
         <v>199.1525309778227</v>
@@ -33503,16 +33503,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L33" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M33" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N33" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O33" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P33" t="n">
         <v>402.5209086724128</v>
@@ -33527,7 +33527,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T33" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U33" t="n">
         <v>0.138679168314718</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H34" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I34" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J34" t="n">
         <v>124.9418978691339</v>
@@ -33588,10 +33588,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N34" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O34" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P34" t="n">
         <v>213.7362748168904</v>
@@ -33606,10 +33606,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T34" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33664,13 +33664,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M35" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N35" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O35" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P35" t="n">
         <v>566.5332534076744</v>
@@ -33679,16 +33679,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R35" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S35" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T35" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H36" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I36" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J36" t="n">
         <v>199.1525309778227</v>
@@ -33740,16 +33740,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L36" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M36" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N36" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O36" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P36" t="n">
         <v>402.5209086724128</v>
@@ -33764,7 +33764,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T36" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U36" t="n">
         <v>0.138679168314718</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H37" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I37" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J37" t="n">
         <v>124.9418978691339</v>
@@ -33825,10 +33825,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N37" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O37" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P37" t="n">
         <v>213.7362748168904</v>
@@ -33843,10 +33843,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T37" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33901,13 +33901,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M38" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N38" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O38" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P38" t="n">
         <v>566.5332534076744</v>
@@ -33916,16 +33916,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R38" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S38" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T38" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H39" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I39" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J39" t="n">
         <v>199.1525309778227</v>
@@ -33977,16 +33977,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L39" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M39" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N39" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O39" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P39" t="n">
         <v>402.5209086724128</v>
@@ -34001,7 +34001,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T39" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U39" t="n">
         <v>0.138679168314718</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H40" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I40" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J40" t="n">
         <v>124.9418978691339</v>
@@ -34062,10 +34062,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N40" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O40" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P40" t="n">
         <v>213.7362748168904</v>
@@ -34080,10 +34080,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T40" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34138,13 +34138,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M41" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N41" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O41" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P41" t="n">
         <v>566.5332534076744</v>
@@ -34153,16 +34153,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R41" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S41" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T41" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H42" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I42" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J42" t="n">
         <v>199.1525309778227</v>
@@ -34214,16 +34214,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L42" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M42" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N42" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O42" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P42" t="n">
         <v>402.5209086724128</v>
@@ -34238,7 +34238,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T42" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U42" t="n">
         <v>0.138679168314718</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H43" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I43" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J43" t="n">
         <v>124.9418978691339</v>
@@ -34299,10 +34299,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N43" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O43" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P43" t="n">
         <v>213.7362748168904</v>
@@ -34317,10 +34317,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T43" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34375,13 +34375,13 @@
         <v>621.7136247920764</v>
       </c>
       <c r="M44" t="n">
-        <v>691.7761989719859</v>
+        <v>691.776198971986</v>
       </c>
       <c r="N44" t="n">
-        <v>702.9698611011021</v>
+        <v>702.9698611011022</v>
       </c>
       <c r="O44" t="n">
-        <v>663.7945059593869</v>
+        <v>663.794505959387</v>
       </c>
       <c r="P44" t="n">
         <v>566.5332534076744</v>
@@ -34390,16 +34390,16 @@
         <v>425.4428794529115</v>
       </c>
       <c r="R44" t="n">
-        <v>247.4769480749981</v>
+        <v>247.4769480749982</v>
       </c>
       <c r="S44" t="n">
-        <v>89.77582957051752</v>
+        <v>89.77582957051753</v>
       </c>
       <c r="T44" t="n">
         <v>17.24602057904291</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3151757044713721</v>
+        <v>0.3151757044713722</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>2.107923358383713</v>
       </c>
       <c r="H45" t="n">
-        <v>20.3581019086006</v>
+        <v>20.35810190860061</v>
       </c>
       <c r="I45" t="n">
-        <v>72.57543141803575</v>
+        <v>72.57543141803576</v>
       </c>
       <c r="J45" t="n">
         <v>199.1525309778227</v>
@@ -34451,16 +34451,16 @@
         <v>340.3833959895315</v>
       </c>
       <c r="L45" t="n">
-        <v>457.6874818280076</v>
+        <v>457.6874818280077</v>
       </c>
       <c r="M45" t="n">
         <v>534.0997035694171</v>
       </c>
       <c r="N45" t="n">
-        <v>548.2357334596308</v>
+        <v>548.2357334596309</v>
       </c>
       <c r="O45" t="n">
-        <v>501.5285895712337</v>
+        <v>501.5285895712338</v>
       </c>
       <c r="P45" t="n">
         <v>402.5209086724128</v>
@@ -34475,7 +34475,7 @@
         <v>39.15375185418868</v>
       </c>
       <c r="T45" t="n">
-        <v>8.496410378748385</v>
+        <v>8.496410378748386</v>
       </c>
       <c r="U45" t="n">
         <v>0.138679168314718</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.767212133934001</v>
+        <v>1.767212133934002</v>
       </c>
       <c r="H46" t="n">
         <v>15.71212242715868</v>
       </c>
       <c r="I46" t="n">
-        <v>53.14488853685162</v>
+        <v>53.14488853685163</v>
       </c>
       <c r="J46" t="n">
         <v>124.9418978691339</v>
@@ -34536,10 +34536,10 @@
         <v>277.0185347765817</v>
       </c>
       <c r="N46" t="n">
-        <v>270.4316531864642</v>
+        <v>270.4316531864643</v>
       </c>
       <c r="O46" t="n">
-        <v>249.7874023491442</v>
+        <v>249.7874023491443</v>
       </c>
       <c r="P46" t="n">
         <v>213.7362748168904</v>
@@ -34554,10 +34554,10 @@
         <v>30.79768782501345</v>
       </c>
       <c r="T46" t="n">
-        <v>7.550815481354368</v>
+        <v>7.550815481354369</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09639338912367292</v>
+        <v>0.09639338912367293</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N6" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35410,25 +35410,25 @@
         <v>153.3308948155281</v>
       </c>
       <c r="K11" t="n">
-        <v>281.0542929256487</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L11" t="n">
-        <v>523.5894167994768</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M11" t="n">
-        <v>910.9434992375457</v>
+        <v>899.8942510159685</v>
       </c>
       <c r="N11" t="n">
         <v>910.9037219164953</v>
       </c>
       <c r="O11" t="n">
-        <v>814.4964758004455</v>
+        <v>433.6962945377002</v>
       </c>
       <c r="P11" t="n">
         <v>657.0989658238875</v>
       </c>
       <c r="Q11" t="n">
-        <v>415.4521802383667</v>
+        <v>203.137189578462</v>
       </c>
       <c r="R11" t="n">
         <v>97.60783013384847</v>
@@ -35504,10 +35504,10 @@
         <v>358.9323451267893</v>
       </c>
       <c r="P12" t="n">
-        <v>587.0092698980197</v>
+        <v>397.9560360312524</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.1168474251635</v>
+        <v>339.1700812919311</v>
       </c>
       <c r="R12" t="n">
         <v>30.7183196249001</v>
@@ -35884,13 +35884,13 @@
         <v>153.3308948155281</v>
       </c>
       <c r="K17" t="n">
-        <v>418.6964999030365</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L17" t="n">
-        <v>385.9472098220892</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M17" t="n">
-        <v>910.9434992375457</v>
+        <v>628.5777872648006</v>
       </c>
       <c r="N17" t="n">
         <v>910.9037219164953</v>
@@ -35899,7 +35899,7 @@
         <v>814.4964758004455</v>
       </c>
       <c r="P17" t="n">
-        <v>657.0989658238875</v>
+        <v>335.3002576524048</v>
       </c>
       <c r="Q17" t="n">
         <v>415.4521802383667</v>
@@ -35978,13 +35978,13 @@
         <v>358.9323451267893</v>
       </c>
       <c r="P18" t="n">
-        <v>397.9560360312524</v>
+        <v>587.0092698980197</v>
       </c>
       <c r="Q18" t="n">
-        <v>339.1700812919311</v>
+        <v>180.8351670500634</v>
       </c>
       <c r="R18" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>153.3308948155281</v>
       </c>
       <c r="K20" t="n">
-        <v>281.0542929256487</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L20" t="n">
-        <v>523.5894167994768</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M20" t="n">
-        <v>910.9434992375457</v>
+        <v>899.8942510159685</v>
       </c>
       <c r="N20" t="n">
         <v>910.9037219164953</v>
       </c>
       <c r="O20" t="n">
-        <v>814.4964758004455</v>
+        <v>433.6962945377002</v>
       </c>
       <c r="P20" t="n">
         <v>657.0989658238875</v>
       </c>
       <c r="Q20" t="n">
-        <v>415.4521802383667</v>
+        <v>203.137189578462</v>
       </c>
       <c r="R20" t="n">
         <v>97.60783013384847</v>
@@ -36212,16 +36212,16 @@
         <v>416.8940213762975</v>
       </c>
       <c r="O21" t="n">
-        <v>358.9323451267893</v>
+        <v>519.0601995248591</v>
       </c>
       <c r="P21" t="n">
-        <v>397.9560360312524</v>
+        <v>268.5465012580825</v>
       </c>
       <c r="Q21" t="n">
         <v>339.1700812919311</v>
       </c>
       <c r="R21" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>153.3308948155281</v>
+        <v>322.4275099876019</v>
       </c>
       <c r="K23" t="n">
-        <v>605.1997054968135</v>
+        <v>281.0542929256487</v>
       </c>
       <c r="L23" t="n">
         <v>385.9472098220892</v>
@@ -36367,7 +36367,7 @@
         <v>910.9434992375457</v>
       </c>
       <c r="N23" t="n">
-        <v>724.4005163227185</v>
+        <v>910.9037219164953</v>
       </c>
       <c r="O23" t="n">
         <v>814.4964758004455</v>
@@ -36379,7 +36379,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R23" t="n">
-        <v>97.60783013384847</v>
+        <v>66.15342193916314</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>72.314904311156</v>
+        <v>198.4059396515648</v>
       </c>
       <c r="K24" t="n">
         <v>202.5419570151725</v>
@@ -36452,13 +36452,13 @@
         <v>358.9323451267893</v>
       </c>
       <c r="P24" t="n">
-        <v>397.9560360312524</v>
+        <v>512.660608051592</v>
       </c>
       <c r="Q24" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R24" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>153.3308948155281</v>
+        <v>322.4275099876019</v>
       </c>
       <c r="K26" t="n">
-        <v>281.0542929256487</v>
+        <v>281.4522036733442</v>
       </c>
       <c r="L26" t="n">
-        <v>523.589416799476</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M26" t="n">
-        <v>910.9434992375457</v>
+        <v>461.4299657447133</v>
       </c>
       <c r="N26" t="n">
-        <v>910.9037219164953</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O26" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P26" t="n">
         <v>657.0989658238875</v>
@@ -36616,7 +36616,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R26" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K27" t="n">
-        <v>202.5419570151725</v>
+        <v>467.0071940277511</v>
       </c>
       <c r="L27" t="n">
-        <v>319.1331020481334</v>
+        <v>424.8730071694731</v>
       </c>
       <c r="M27" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N27" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O27" t="n">
-        <v>358.9323451267893</v>
+        <v>358.9323451267894</v>
       </c>
       <c r="P27" t="n">
-        <v>397.9560360312524</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q27" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R27" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K28" t="n">
         <v>183.0484270075402</v>
@@ -36762,7 +36762,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N28" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O28" t="n">
         <v>274.3725302631839</v>
@@ -36771,7 +36771,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>153.3308948155281</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K29" t="n">
-        <v>281.0542929256487</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L29" t="n">
-        <v>523.5894167994768</v>
+        <v>385.9472098220892</v>
       </c>
       <c r="M29" t="n">
-        <v>910.9434992375457</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N29" t="n">
-        <v>910.9037219164953</v>
+        <v>724.4005163227181</v>
       </c>
       <c r="O29" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P29" t="n">
         <v>657.0989658238875</v>
@@ -36853,7 +36853,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R29" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K30" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L30" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M30" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N30" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O30" t="n">
-        <v>358.9323451267893</v>
+        <v>729.1374872607073</v>
       </c>
       <c r="P30" t="n">
-        <v>397.9560360312524</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q30" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R30" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.58271775246112</v>
+        <v>31.58271775246114</v>
       </c>
       <c r="K31" t="n">
         <v>183.0484270075402</v>
@@ -36999,7 +36999,7 @@
         <v>316.6024117384223</v>
       </c>
       <c r="N31" t="n">
-        <v>314.5638255656928</v>
+        <v>314.5638255656929</v>
       </c>
       <c r="O31" t="n">
         <v>274.3725302631839</v>
@@ -37008,7 +37008,7 @@
         <v>211.0148340817839</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.81787461799733</v>
+        <v>61.81787461799736</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>153.3308948155281</v>
+        <v>322.4275099876019</v>
       </c>
       <c r="K32" t="n">
-        <v>281.0542929256487</v>
+        <v>366.0523690118988</v>
       </c>
       <c r="L32" t="n">
-        <v>523.5894167994768</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M32" t="n">
-        <v>910.9434992375457</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N32" t="n">
-        <v>910.9037219164953</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O32" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P32" t="n">
-        <v>657.0989658238875</v>
+        <v>335.3002576524048</v>
       </c>
       <c r="Q32" t="n">
-        <v>415.4521802383667</v>
+        <v>203.1371895784621</v>
       </c>
       <c r="R32" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K33" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L33" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M33" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N33" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O33" t="n">
-        <v>358.9323451267893</v>
+        <v>729.1374872607073</v>
       </c>
       <c r="P33" t="n">
-        <v>397.9560360312524</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q33" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R33" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.51152122721086</v>
+        <v>87.51152122721088</v>
       </c>
       <c r="K34" t="n">
-        <v>238.9772304822899</v>
+        <v>238.97723048229</v>
       </c>
       <c r="L34" t="n">
         <v>346.2550763564901</v>
       </c>
       <c r="M34" t="n">
-        <v>372.5312152131721</v>
+        <v>372.531215213172</v>
       </c>
       <c r="N34" t="n">
-        <v>370.4926290404426</v>
+        <v>370.4926290404427</v>
       </c>
       <c r="O34" t="n">
         <v>330.3013337379336</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>153.3308948155281</v>
+        <v>322.4275099876019</v>
       </c>
       <c r="K35" t="n">
-        <v>281.0542929256487</v>
+        <v>281.0542929256488</v>
       </c>
       <c r="L35" t="n">
         <v>385.9472098220892</v>
       </c>
       <c r="M35" t="n">
-        <v>461.4299657447132</v>
+        <v>461.4299657447133</v>
       </c>
       <c r="N35" t="n">
-        <v>642.0936914232973</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O35" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P35" t="n">
-        <v>657.0989658238875</v>
+        <v>431.5073108185208</v>
       </c>
       <c r="Q35" t="n">
-        <v>415.4521802383667</v>
+        <v>203.1371895784621</v>
       </c>
       <c r="R35" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K36" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L36" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M36" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N36" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O36" t="n">
-        <v>358.9323451267893</v>
+        <v>729.1374872607078</v>
       </c>
       <c r="P36" t="n">
-        <v>397.9560360312526</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q36" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R36" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>372.531215213172</v>
       </c>
       <c r="N37" t="n">
-        <v>370.4926290404425</v>
+        <v>370.4926290404426</v>
       </c>
       <c r="O37" t="n">
         <v>330.3013337379336</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>153.3308948155281</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K38" t="n">
-        <v>281.0542929256487</v>
+        <v>449.5911868444353</v>
       </c>
       <c r="L38" t="n">
         <v>385.9472098220892</v>
       </c>
       <c r="M38" t="n">
-        <v>461.4299657447132</v>
+        <v>461.4299657447133</v>
       </c>
       <c r="N38" t="n">
-        <v>642.0936914232983</v>
+        <v>473.5567975045113</v>
       </c>
       <c r="O38" t="n">
-        <v>814.4964758004455</v>
+        <v>814.4964758004456</v>
       </c>
       <c r="P38" t="n">
         <v>657.0989658238875</v>
@@ -37564,7 +37564,7 @@
         <v>415.4521802383667</v>
       </c>
       <c r="R38" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K39" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L39" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M39" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N39" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O39" t="n">
-        <v>358.9323451267893</v>
+        <v>729.1374872607078</v>
       </c>
       <c r="P39" t="n">
-        <v>587.0092698980197</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.1168474251639</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R39" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.51152122721084</v>
+        <v>87.51152122721086</v>
       </c>
       <c r="K40" t="n">
         <v>238.9772304822899</v>
@@ -37710,10 +37710,10 @@
         <v>372.531215213172</v>
       </c>
       <c r="N40" t="n">
-        <v>370.4926290404425</v>
+        <v>370.4926290404426</v>
       </c>
       <c r="O40" t="n">
-        <v>330.3013337379336</v>
+        <v>330.3013337379337</v>
       </c>
       <c r="P40" t="n">
         <v>266.9436375565336</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>153.3308948155281</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K41" t="n">
-        <v>281.0542929256487</v>
+        <v>281.0542929256488</v>
       </c>
       <c r="L41" t="n">
-        <v>385.9472098220892</v>
+        <v>803.6084243725396</v>
       </c>
       <c r="M41" t="n">
-        <v>461.4299657447132</v>
+        <v>910.9434992375458</v>
       </c>
       <c r="N41" t="n">
-        <v>642.0936914232983</v>
+        <v>755.5492433471306</v>
       </c>
       <c r="O41" t="n">
-        <v>814.4964758004455</v>
+        <v>433.6962945377003</v>
       </c>
       <c r="P41" t="n">
-        <v>657.0989658238875</v>
+        <v>335.3002576524048</v>
       </c>
       <c r="Q41" t="n">
-        <v>415.4521802383667</v>
+        <v>203.1371895784621</v>
       </c>
       <c r="R41" t="n">
-        <v>97.60783013384847</v>
+        <v>31.89141026086605</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K42" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L42" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M42" t="n">
         <v>391.9656696473988</v>
       </c>
       <c r="N42" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9323451267893</v>
+        <v>729.1374872607078</v>
       </c>
       <c r="P42" t="n">
-        <v>397.9560360312526</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q42" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R42" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.51152122721084</v>
+        <v>87.51152122721085</v>
       </c>
       <c r="K43" t="n">
         <v>238.9772304822899</v>
@@ -37947,7 +37947,7 @@
         <v>372.531215213172</v>
       </c>
       <c r="N43" t="n">
-        <v>370.4926290404425</v>
+        <v>370.4926290404426</v>
       </c>
       <c r="O43" t="n">
         <v>330.3013337379336</v>
@@ -37956,7 +37956,7 @@
         <v>266.9436375565336</v>
       </c>
       <c r="Q43" t="n">
-        <v>117.746678092747</v>
+        <v>117.7466780927471</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>153.3308948155281</v>
+        <v>322.4275099876019</v>
       </c>
       <c r="K44" t="n">
-        <v>281.0542929256487</v>
+        <v>605.1997054968135</v>
       </c>
       <c r="L44" t="n">
         <v>385.9472098220892</v>
       </c>
       <c r="M44" t="n">
-        <v>461.4299657447132</v>
+        <v>461.4299657447133</v>
       </c>
       <c r="N44" t="n">
-        <v>910.9037219164953</v>
+        <v>910.9037219164954</v>
       </c>
       <c r="O44" t="n">
-        <v>545.6864453072483</v>
+        <v>433.6962945377003</v>
       </c>
       <c r="P44" t="n">
-        <v>657.0989658238875</v>
+        <v>488.1620795101018</v>
       </c>
       <c r="Q44" t="n">
-        <v>415.4521802383667</v>
+        <v>203.1371895784621</v>
       </c>
       <c r="R44" t="n">
-        <v>97.60783013384847</v>
+        <v>97.60783013384849</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>72.314904311156</v>
+        <v>72.31490431115603</v>
       </c>
       <c r="K45" t="n">
         <v>202.5419570151725</v>
       </c>
       <c r="L45" t="n">
-        <v>319.1331020481334</v>
+        <v>319.1331020481335</v>
       </c>
       <c r="M45" t="n">
-        <v>391.9656696473988</v>
+        <v>762.1708117813172</v>
       </c>
       <c r="N45" t="n">
-        <v>416.8940213762975</v>
+        <v>416.8940213762976</v>
       </c>
       <c r="O45" t="n">
-        <v>358.9323451267893</v>
+        <v>358.9323451267894</v>
       </c>
       <c r="P45" t="n">
-        <v>397.9560360312526</v>
+        <v>268.5465012580826</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.1700812919311</v>
+        <v>129.092793556082</v>
       </c>
       <c r="R45" t="n">
-        <v>30.7183196249001</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>346.2550763564901</v>
       </c>
       <c r="M46" t="n">
-        <v>372.5312152131721</v>
+        <v>372.531215213172</v>
       </c>
       <c r="N46" t="n">
         <v>370.4926290404426</v>
